--- a/Data_processed/industry/water.xlsx
+++ b/Data_processed/industry/water.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:CW9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,20 +446,495 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>..1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>..2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>eco-costs of</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>eco-costs of.1</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>eco-costs of.2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>eco-costs of.3</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 11</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 13</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 14</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>human tox</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>ecotoxicity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>metals</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>fossil tra</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>biodiversity</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 22</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 23</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>carbon</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>ced</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>non-renewable</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>non-renewable.1</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>non-renewable.2</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>renewable</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>renewable.1</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>renewable.2</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>recipe2016</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>recipe</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.1</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.2</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.4</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.5</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>global warming,</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>global warming, .1</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>global warming, .2</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>stratospheric</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>ionizing</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>ozone formation,</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>fine particulate</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>ozone formation, .1</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>freshwater</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>marine</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>freshwater</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>marine</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>human .1</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>human .2</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>land use</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>mineral resource</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>fossil resource</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>water consumption,</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>water consumption,</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>water consumption, .1</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>ef 3.1</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>acidification</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>climate change</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>ecotoxicity</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>particulate</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>eutrophication,</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>eutrophication, .1</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>eutrophication,</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>human toxicity,</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>human toxicity, non-cancer</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>ionising radiation</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>land use.1</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>ozone depletion</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>photochemical ozone formation</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>resource use,</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>resource use,.1</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>water use</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>traci</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>traci.1</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>traci.2</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>traci.3</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>traci.4</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>traci.5</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>traci.6</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>traci.7</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>traci.8</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>traci.9</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>carbon</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>pollutants</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>biodiversity.1</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>resources</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>classyfire</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>chemicals,plastics, and wood</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>note:</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 107</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 110</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 118</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>source_file</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>region</t>
         </is>
@@ -478,18 +953,297 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>A.150.01.101</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Materials, water</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m3 </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>drinking water without water stress</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
+        <v>0.151868879686</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.028651162686</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0218887897</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0069555273</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0943734</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0082276515</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.010815175</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.008078399999999999</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.0203708</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4.7629826e-05</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.00015433286</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.0028459632</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.0033866</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0035689273</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>0.629156</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="Z2" t="n">
+        <v>3.7859518</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>3.2712918</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.443345</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.000215</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.0461</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.018344712</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.017572311</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.00053680163</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.00023559892</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1.0534959e-06</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1.9852131e-09</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.032997048</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>5.8385677e-07</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1.7616368e-09</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>4.8130434e-14</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>2.1648e-10</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>4.68954e-07</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>4.9368e-11</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1.74052e-10</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>8.7931151e-14</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1.7089552e-14</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>3.184661e-15</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1.35849e-11</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>4.5504e-10</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.00028413</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.032712918</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>4.4765028e-05</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1.1999671e-06</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>1.7542539e-05</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>3.3724524e-07</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1.9221953e-05</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>7.4517659e-08</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>2.1163859e-07</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>1.6221237e-06</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>4.5550436e-06</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>4.7681001e-14</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.629156</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.000821</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.00073496052</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>4.230063e-11</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>5.29942e-09</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.00055817221</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.014246279</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.4486343</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0.0943734</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0.050539952386</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0.0218887897</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0.0218887897</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0.0069555273</v>
+      </c>
+      <c r="CP2" t="inlineStr"/>
+      <c r="CQ2" t="inlineStr"/>
+      <c r="CR2" t="inlineStr"/>
+      <c r="CS2" t="inlineStr"/>
+      <c r="CT2" t="inlineStr"/>
+      <c r="CU2" t="inlineStr"/>
+      <c r="CV2" t="inlineStr">
+        <is>
+          <t>water.xlsx</t>
+        </is>
+      </c>
+      <c r="CW2" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -508,18 +1262,297 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>A.150.01.102</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Materials, water</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m3 </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>industrial reverse osmosis water</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
+        <v>2.89511924094</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.13640730094</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.23645022</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.23571052</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.2865512</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.1463139</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.12913642</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.108936</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.0211728</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.00064881574</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.0056496852</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.9609999</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.0033276</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.23238292</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>8.577007999999999</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="Z3" t="n">
+        <v>113.57024</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>80.39001500000001</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>28.867443</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.00225</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1.736346</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>2.574188</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.19837371</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.18511821</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.0075136607</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.0057418404</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1.1098214e-05</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>2.7787207e-08</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.80417933</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>7.959463400000001e-06</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>2.4015622e-08</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>6.5614111e-13</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2.9192e-09</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.989312e-06</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>6.6572e-10</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>3.0952e-09</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>3.2186519e-12</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>5.768293e-12</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>1.0212356e-12</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>2.391102e-09</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>1.4412825e-07</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.00027918</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.80390015</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.00060591115</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>2.1339244e-05</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0.00023914974</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0.00011262148</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>3.6529222e-05</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>2.2065795e-06</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>3.6915238e-05</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>2.2208906e-05</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.00013494074</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>4.6850322e-14</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>8.577007999999999</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0.0146</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0.008775648</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>2.2372077e-09</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>3.81686e-07</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0.0014202221</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>4.7895495</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>11.024916</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>1.2865512</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>1.37285752094</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>1.23645022</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>1.23645022</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>0.23571052</v>
+      </c>
+      <c r="CP3" t="inlineStr"/>
+      <c r="CQ3" t="inlineStr"/>
+      <c r="CR3" t="inlineStr"/>
+      <c r="CS3" t="inlineStr"/>
+      <c r="CT3" t="inlineStr"/>
+      <c r="CU3" t="inlineStr"/>
+      <c r="CV3" t="inlineStr">
+        <is>
+          <t>water.xlsx</t>
+        </is>
+      </c>
+      <c r="CW3" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -538,18 +1571,297 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>A.150.02.101</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>Materials, water</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m3 </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>cooling water - excluding pumping energy</t>
         </is>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP4" t="inlineStr"/>
+      <c r="CQ4" t="inlineStr"/>
+      <c r="CR4" t="inlineStr"/>
+      <c r="CS4" t="inlineStr"/>
+      <c r="CT4" t="inlineStr"/>
+      <c r="CU4" t="inlineStr"/>
+      <c r="CV4" t="inlineStr">
+        <is>
+          <t>water.xlsx</t>
+        </is>
+      </c>
+      <c r="CW4" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -568,18 +1880,297 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>A.150.03.101</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Materials, water</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m3 </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>low water stress (BWS &lt; 10%) drinking water and cooling tower water</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
+        <v>0.266368879686</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.028651162686</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0218887897</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.1214555273</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0943734</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0082276515</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.010815175</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.008078399999999999</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.0203708</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.7629826e-05</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.00015433286</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.0028459632</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.0033866</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.0035689273</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.1145</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>0.629156</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="Z5" t="n">
+        <v>3.7859518</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>3.2712918</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.443345</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.000215</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.0461</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.018344712</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.017572311</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.00053680163</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.00023559892</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1.0534959e-06</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1.9852131e-09</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.032997048</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>5.8385677e-07</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1.7616368e-09</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>4.8130434e-14</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>2.1648e-10</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>4.68954e-07</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>4.9368e-11</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>1.74052e-10</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>8.7931151e-14</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>1.7089552e-14</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>3.184661e-15</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>1.35849e-11</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>4.5504e-10</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0.00028413</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0.032712918</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>4.4765028e-05</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>1.1999671e-06</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>1.7542539e-05</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>3.3724524e-07</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>1.9221953e-05</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>7.4517659e-08</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>2.1163859e-07</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>1.6221237e-06</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>4.5550436e-06</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>4.7681001e-14</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>0.629156</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>0.000821</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0.00073496052</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>4.230063e-11</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>5.29942e-09</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>0.00055817221</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0.014246279</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>0.4486343</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>0.0943734</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>0.050539952386</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>0.1363887897</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0.0218887897</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>0.0069555273</v>
+      </c>
+      <c r="CP5" t="inlineStr"/>
+      <c r="CQ5" t="inlineStr"/>
+      <c r="CR5" t="inlineStr"/>
+      <c r="CS5" t="inlineStr"/>
+      <c r="CT5" t="inlineStr"/>
+      <c r="CU5" t="inlineStr"/>
+      <c r="CV5" t="inlineStr">
+        <is>
+          <t>water.xlsx</t>
+        </is>
+      </c>
+      <c r="CW5" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -598,18 +2189,297 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>A.150.03.102</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Materials, water</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m3 </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>low medium water stress (BWS 10%-20%) drinking water and cooling tower water</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
+        <v>0.380868879686</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.028651162686</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0218887897</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.2359555273</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0943734</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0082276515</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.010815175</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.008078399999999999</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.0203708</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.7629826e-05</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.00015433286</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.0028459632</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.0033866</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.0035689273</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>0.629156</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="Z6" t="n">
+        <v>3.7859518</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>3.2712918</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.443345</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.000215</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.0461</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.018344712</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.017572311</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.00053680163</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.00023559892</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1.0534959e-06</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1.9852131e-09</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.032997048</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>5.8385677e-07</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>1.7616368e-09</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>4.8130434e-14</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>2.1648e-10</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>4.68954e-07</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>4.9368e-11</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>1.74052e-10</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>8.7931151e-14</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>1.7089552e-14</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>3.184661e-15</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>1.35849e-11</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>4.5504e-10</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0.00028413</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0.032712918</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>4.4765028e-05</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>1.1999671e-06</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>1.7542539e-05</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>3.3724524e-07</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>1.9221953e-05</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>7.4517659e-08</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>2.1163859e-07</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>1.6221237e-06</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>4.5550436e-06</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>4.7681001e-14</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>0.629156</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>0.000821</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>0.00073496052</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>4.230063e-11</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>5.29942e-09</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>0.00055817221</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0.014246279</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>0.4486343</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>0.0943734</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>0.050539952386</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>0.2508887897</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>0.0218887897</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>0.0069555273</v>
+      </c>
+      <c r="CP6" t="inlineStr"/>
+      <c r="CQ6" t="inlineStr"/>
+      <c r="CR6" t="inlineStr"/>
+      <c r="CS6" t="inlineStr"/>
+      <c r="CT6" t="inlineStr"/>
+      <c r="CU6" t="inlineStr"/>
+      <c r="CV6" t="inlineStr">
+        <is>
+          <t>water.xlsx</t>
+        </is>
+      </c>
+      <c r="CW6" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -628,18 +2498,297 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>A.150.03.103</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Materials, water</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m3 </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>medium high water stress (BWS 20%-40%) drinking water and cooling tower water</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
+        <v>0.6098688796859999</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.028651162686</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0218887897</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.4649555273</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0943734</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.0082276515</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.010815175</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.008078399999999999</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.0203708</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.7629826e-05</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.00015433286</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.0028459632</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.0033866</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.0035689273</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.458</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>0.629156</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="Z7" t="n">
+        <v>3.7859518</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>3.2712918</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.443345</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.000215</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.0461</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.018344712</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.017572311</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.00053680163</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.00023559892</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>1.0534959e-06</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1.9852131e-09</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.032997048</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>5.8385677e-07</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>1.7616368e-09</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>4.8130434e-14</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>2.1648e-10</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>4.68954e-07</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>4.9368e-11</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>1.74052e-10</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>8.7931151e-14</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>1.7089552e-14</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>3.184661e-15</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>1.35849e-11</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>4.5504e-10</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0.00028413</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0.032712918</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>4.4765028e-05</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>1.1999671e-06</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>1.7542539e-05</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>3.3724524e-07</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>1.9221953e-05</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>7.4517659e-08</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>2.1163859e-07</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>1.6221237e-06</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>4.5550436e-06</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>4.7681001e-14</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>0.629156</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>0.000821</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0.00073496052</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>4.230063e-11</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>5.29942e-09</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0.00055817221</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0.014246279</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>0.4486343</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>0.0943734</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>0.050539952386</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>0.4798887897</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>0.0218887897</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>0.0069555273</v>
+      </c>
+      <c r="CP7" t="inlineStr"/>
+      <c r="CQ7" t="inlineStr"/>
+      <c r="CR7" t="inlineStr"/>
+      <c r="CS7" t="inlineStr"/>
+      <c r="CT7" t="inlineStr"/>
+      <c r="CU7" t="inlineStr"/>
+      <c r="CV7" t="inlineStr">
+        <is>
+          <t>water.xlsx</t>
+        </is>
+      </c>
+      <c r="CW7" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -658,18 +2807,297 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>A.150.03.104</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Materials, water</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m3 </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>high water stress (BWS 40%-80%) drinking water and cooling tower water</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
+        <v>1.067868879686</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.028651162686</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0218887897</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.9229555273000001</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0943734</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0082276515</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.010815175</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.008078399999999999</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.0203708</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4.7629826e-05</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.00015433286</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.0028459632</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.0033866</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.0035689273</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>0.629156</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="Z8" t="n">
+        <v>3.7859518</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>3.2712918</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.443345</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.000215</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.0461</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.018344712</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.017572311</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.00053680163</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.00023559892</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>1.0534959e-06</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>1.9852131e-09</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.032997048</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>5.8385677e-07</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>1.7616368e-09</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>4.8130434e-14</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>2.1648e-10</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>4.68954e-07</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>4.9368e-11</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>1.74052e-10</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>8.7931151e-14</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>1.7089552e-14</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>3.184661e-15</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>1.35849e-11</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>4.5504e-10</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0.00028413</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0.032712918</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>4.4765028e-05</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>1.1999671e-06</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>1.7542539e-05</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>3.3724524e-07</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>1.9221953e-05</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>7.4517659e-08</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>2.1163859e-07</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>1.6221237e-06</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>4.5550436e-06</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>4.7681001e-14</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>0.629156</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>0.000821</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0.00073496052</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>4.230063e-11</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>5.29942e-09</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0.00055817221</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0.014246279</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>0.4486343</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>0.0943734</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>0.050539952386</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>0.9378887897</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>0.0218887897</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>0.0069555273</v>
+      </c>
+      <c r="CP8" t="inlineStr"/>
+      <c r="CQ8" t="inlineStr"/>
+      <c r="CR8" t="inlineStr"/>
+      <c r="CS8" t="inlineStr"/>
+      <c r="CT8" t="inlineStr"/>
+      <c r="CU8" t="inlineStr"/>
+      <c r="CV8" t="inlineStr">
+        <is>
+          <t>water.xlsx</t>
+        </is>
+      </c>
+      <c r="CW8" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -688,18 +3116,297 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>A.150.03.105</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>Materials, water</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m3 </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>extremely high water stress (BWS &gt; 80%) drinking water and cooling tower water</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
+        <v>1.296868879686</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.028651162686</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0218887897</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.1519555273</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0943734</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.0082276515</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.010815175</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.008078399999999999</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.0203708</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4.7629826e-05</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.00015433286</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.0028459632</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.0033866</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.0035689273</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.145</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>0.629156</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="Z9" t="n">
+        <v>3.7859518</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>3.2712918</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.443345</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.000215</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.0461</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.018344712</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.017572311</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.00053680163</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.00023559892</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1.0534959e-06</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>1.9852131e-09</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.032997048</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>5.8385677e-07</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>1.7616368e-09</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>4.8130434e-14</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>2.1648e-10</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>4.68954e-07</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>4.9368e-11</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>1.74052e-10</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>8.7931151e-14</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>1.7089552e-14</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>3.184661e-15</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>1.35849e-11</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>4.5504e-10</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0.00028413</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0.032712918</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>4.4765028e-05</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>1.1999671e-06</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>1.7542539e-05</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>3.3724524e-07</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>1.9221953e-05</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>7.4517659e-08</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>2.1163859e-07</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>1.6221237e-06</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>4.5550436e-06</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>4.7681001e-14</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>0.629156</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>0.000821</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>0.00073496052</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>4.230063e-11</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>5.29942e-09</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>0.00055817221</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0.014246279</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>0.4486343</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>0.0943734</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>0.050539952386</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>1.1668887897</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>0.0218887897</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>0.0069555273</v>
+      </c>
+      <c r="CP9" t="inlineStr"/>
+      <c r="CQ9" t="inlineStr"/>
+      <c r="CR9" t="inlineStr"/>
+      <c r="CS9" t="inlineStr"/>
+      <c r="CT9" t="inlineStr"/>
+      <c r="CU9" t="inlineStr"/>
+      <c r="CV9" t="inlineStr">
+        <is>
+          <t>water.xlsx</t>
+        </is>
+      </c>
+      <c r="CW9" t="inlineStr">
         <is>
           <t>Global</t>
         </is>

--- a/Data_processed/industry/water.xlsx
+++ b/Data_processed/industry/water.xlsx
@@ -436,37 +436,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>Unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>Process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Total MJ</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>carbon</t>
+          <t>Carbon MJ</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ced</t>
+          <t>CED MJ</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>region</t>
+          <t>Region</t>
         </is>
       </c>
     </row>

--- a/Data_processed/industry/water.xlsx
+++ b/Data_processed/industry/water.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon MJ</t>
+          <t>Carbon kg-CO2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">

--- a/Data_processed/industry/water.xlsx
+++ b/Data_processed/industry/water.xlsx
@@ -136,6 +136,51 @@
 </styleSheet>
 </file>
 
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Data Processor</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Various (e.g. kg, kWh)</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Carbon footprint</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Cumulative energy demand</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Climate change impact</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -436,37 +481,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unit</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Process</t>
+          <t>process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Total MJ</t>
+          <t>carbon (kg CO2 eq)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon kg-CO2</t>
+          <t>ced (MJ)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>CED MJ</t>
+          <t>climate change (kg CO2 eq)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Region</t>
+          <t>region</t>
         </is>
       </c>
     </row>
@@ -487,13 +532,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.151868879686</v>
+        <v>0.629156</v>
       </c>
       <c r="E2" t="n">
-        <v>0.629156</v>
+        <v>3.7859518</v>
       </c>
       <c r="F2" t="n">
-        <v>3.7859518</v>
+        <v>1.7542539e-05</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -518,13 +563,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.89511924094</v>
+        <v>8.577007999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>8.577007999999999</v>
+        <v>113.57024</v>
       </c>
       <c r="F3" t="n">
-        <v>113.57024</v>
+        <v>0.00023914974</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -580,13 +625,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.266368879686</v>
+        <v>0.629156</v>
       </c>
       <c r="E5" t="n">
-        <v>0.629156</v>
+        <v>3.7859518</v>
       </c>
       <c r="F5" t="n">
-        <v>3.7859518</v>
+        <v>1.7542539e-05</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -611,13 +656,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.380868879686</v>
+        <v>0.629156</v>
       </c>
       <c r="E6" t="n">
-        <v>0.629156</v>
+        <v>3.7859518</v>
       </c>
       <c r="F6" t="n">
-        <v>3.7859518</v>
+        <v>1.7542539e-05</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -642,13 +687,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.6098688796859999</v>
+        <v>0.629156</v>
       </c>
       <c r="E7" t="n">
-        <v>0.629156</v>
+        <v>3.7859518</v>
       </c>
       <c r="F7" t="n">
-        <v>3.7859518</v>
+        <v>1.7542539e-05</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -673,13 +718,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.067868879686</v>
+        <v>0.629156</v>
       </c>
       <c r="E8" t="n">
-        <v>0.629156</v>
+        <v>3.7859518</v>
       </c>
       <c r="F8" t="n">
-        <v>3.7859518</v>
+        <v>1.7542539e-05</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -704,13 +749,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.296868879686</v>
+        <v>0.629156</v>
       </c>
       <c r="E9" t="n">
-        <v>0.629156</v>
+        <v>3.7859518</v>
       </c>
       <c r="F9" t="n">
-        <v>3.7859518</v>
+        <v>1.7542539e-05</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -720,5 +765,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>